--- a/APIProject/APIProject/Resources/QuoteFiles/Báo giá QTSC_dịch vụ viễn thông.xlsx
+++ b/APIProject/APIProject/Resources/QuoteFiles/Báo giá QTSC_dịch vụ viễn thông.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">CÔNG TY TNHH MỘT THÀNH VIÊN PHÁT TRIỂN
 CÔNG VIÊN PHẦN MỀM QUANG TRUNG    </t>
@@ -36,7 +36,7 @@
     <t>BẢNG BÁO GIÁ</t>
   </si>
   <si>
-    <t>Kính gửi: Đinh Thị Bảo Ngọc - SAIGON TECHNOLOGY</t>
+    <t>Kính gửi: Nguyễn Thị Phượng Nhi - Misa</t>
   </si>
   <si>
     <t xml:space="preserve">Công ty QTSC xin trân trọng báo giá dịch vụ viễn thông  như sau:</t>
@@ -57,33 +57,15 @@
     <t>1</t>
   </si>
   <si>
-    <t>Dịch vụ datacenter Dịch vụ datacenter Dịch vụ datacenter Chỗ đặt không gian Rack 1U</t>
-  </si>
-  <si>
-    <t>10,000,000</t>
+    <t>Dịch vụ internet BE 512Kbps/250Kbps</t>
+  </si>
+  <si>
+    <t>5,000,000</t>
   </si>
   <si>
     <t>tháng</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Dịch vụ datacenter Dịch vụ datacenter Dịch vụ datacenter Chỗ đặt không gian Rack 2U</t>
-  </si>
-  <si>
-    <t>15,000,000</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Dịch vụ datacenter Dịch vụ datacenter Dịch vụ datacenter Chỗ đặt không gian Rack 3U</t>
-  </si>
-  <si>
-    <t>20,000,000</t>
-  </si>
-  <si>
     <t>Ghi chú:</t>
   </si>
   <si>
@@ -93,13 +75,13 @@
     <t/>
   </si>
   <si>
-    <t>Xin vui lòng liên hệ Văn phòng công ty hoặc gặp trực tiếp nhân viên: Nguyễn Văn 4</t>
-  </si>
-  <si>
-    <t>Điện thoại:12-444-444</t>
-  </si>
-  <si>
-    <t>Email:12@444.444</t>
+    <t>Xin vui lòng liên hệ Văn phòng công ty hoặc gặp trực tiếp nhân viên: Nhân viên kinh doanh- Mẫu</t>
+  </si>
+  <si>
+    <t>Điện thoại:0909090909</t>
+  </si>
+  <si>
+    <t>Email:role4@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -685,7 +667,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AH22"/>
+  <dimension ref="A2:AH20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -984,115 +966,31 @@
       <c r="AG15" s="24"/>
     </row>
     <row r="16">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="23" t="s">
+    </row>
+    <row r="17">
+      <c r="C17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="24" t="s">
+    </row>
+    <row r="18">
+      <c r="C18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="24"/>
-      <c r="AA16" s="24"/>
-      <c r="AB16" s="24"/>
-      <c r="AC16" s="24"/>
-      <c r="AD16" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE16" s="24"/>
-      <c r="AF16" s="24"/>
-      <c r="AG16" s="24"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="11" t="s">
+    </row>
+    <row r="19">
+      <c r="B19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="23" t="s">
+    </row>
+    <row r="20">
+      <c r="B20" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="24" t="s">
+      <c r="P20" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="24"/>
-      <c r="AB17" s="24"/>
-      <c r="AC17" s="24"/>
-      <c r="AD17" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE17" s="24"/>
-      <c r="AF17" s="24"/>
-      <c r="AG17" s="24"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="C19" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="C20" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="P22" s="10" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1108,12 +1006,6 @@
     <mergeCell ref="C15:U15"/>
     <mergeCell ref="V15:AC15"/>
     <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="C16:U16"/>
-    <mergeCell ref="V16:AC16"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="C17:U17"/>
-    <mergeCell ref="V17:AC17"/>
-    <mergeCell ref="AD17:AG17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
